--- a/Log de tâche.xlsx
+++ b/Log de tâche.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samuel B." sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -35,51 +35,9 @@
     <t>Log de tache - Samuel Masson</t>
   </si>
   <si>
-    <t>Menu - Créer un compte</t>
-  </si>
-  <si>
-    <t>C'était long, je ne comprenais pas la facon dont le MVC devait être utilisé dans le cadre du tp.</t>
-  </si>
-  <si>
-    <t>Menu - Supprimer un compte</t>
-  </si>
-  <si>
-    <t>Je n'ai pas trouvé comment supprimer une ligne directement dans le fichier. J'ai donc trouver une alternative qui fonctionne.</t>
-  </si>
-  <si>
-    <t>Menu - Modifier un compte</t>
-  </si>
-  <si>
-    <t>J'ai eu de la misère à passer les informations de l'utilisateur en paramètre pour les avoirs lors de la modification.</t>
-  </si>
-  <si>
-    <t>Je ne n'allais pas chercher le contour des sprites correctement et j'ai beaucoup perdu de temps dessu. Mon coéquipier à pris la relève et on a réussis à trouver ce qu'il fallait faire.</t>
-  </si>
-  <si>
-    <t>Placement du niveau de jeu</t>
-  </si>
-  <si>
-    <t>Gossage de visuel + le personnage doit pouvoir passer partout.</t>
-  </si>
-  <si>
-    <t>Personnage Collisions / saut / gravité</t>
-  </si>
-  <si>
-    <t>Tests Unitaires du controleur</t>
-  </si>
-  <si>
     <t>"Plaisant à faire", bien déterminer les cas</t>
   </si>
   <si>
-    <t>2017-10-22/11-4</t>
-  </si>
-  <si>
-    <t>Collectibles avec flyweight + système de points</t>
-  </si>
-  <si>
-    <t>Gossage d'interface pour placer les objets.</t>
-  </si>
-  <si>
     <t>Lecture/Prise en considération du TP3</t>
   </si>
   <si>
@@ -144,12 +102,66 @@
   </si>
   <si>
     <t>Certains problèmes liés à la balance du jeu qui ont pu être aisément corrigés grâce à l'enum des ennemis. (les boss pouvaient spawner plusieurs fois de suite et les queens auraient aussi pu submerger le jeu)</t>
+  </si>
+  <si>
+    <t>Backgroud + étoiles défilantes</t>
+  </si>
+  <si>
+    <t>J'ai fait le background avec un vecteur d'étoiles. Quand j'ai voulu changer le vecteur pour ma liste, les étoiles fonctionnaient correctement, mais avait tous la même position Y.</t>
+  </si>
+  <si>
+    <t>L'écran de fin</t>
+  </si>
+  <si>
+    <t>Gossage de visuel</t>
+  </si>
+  <si>
+    <t>Lecture énoncée / document de conception</t>
+  </si>
+  <si>
+    <t>Classe pour les ennemies, L'ennemie de base, correction bugs spaceship et game. Effets visuels lors du mouvement</t>
+  </si>
+  <si>
+    <t>Aucune.</t>
+  </si>
+  <si>
+    <t>DeQueue</t>
+  </si>
+  <si>
+    <t>J'ai eu de la misère à comprendre ce qu'il fallait que je fasse et comment le faire.</t>
+  </si>
+  <si>
+    <t>2017-11-30/1/2/3</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>J'ai eu de la misère à comprendre ce qu'il fallait que je fasse et comment le faire. L'ittérateur m'a complètement mélangé et je ne savais pas comment l'implémenter.</t>
+  </si>
+  <si>
+    <t>J'ai un un petit problème concerant les projectiles de l'explosion</t>
+  </si>
+  <si>
+    <t>12-05 12-06</t>
+  </si>
+  <si>
+    <t>Reflector</t>
+  </si>
+  <si>
+    <t>Bombe + kamikaze</t>
+  </si>
+  <si>
+    <t>Réglage de momory leaks</t>
+  </si>
+  <si>
+    <t>J'avais un mémory leak que j'ai cherché longtemps. Il se trouvait dans le kamikaze, car il avait une incompatibilité entre la classe projectile et ennemy. Kamikaze hérite de ceux-ci.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -298,6 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,113 +685,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43059</v>
       </c>
       <c r="B3" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43063</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>43064</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <v>1.5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43066</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43067</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>43048</v>
-      </c>
-      <c r="B6" s="5">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>43049</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>43050</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>43051</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43051</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>43076</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>43077</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -904,11 +935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -963,10 +994,10 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -977,10 +1008,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -991,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -1005,10 +1036,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1019,10 +1050,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -1033,10 +1064,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -1047,10 +1078,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1061,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1075,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1089,10 +1120,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
